--- a/biology/Médecine/Réal_Lacombe/Réal_Lacombe.xlsx
+++ b/biology/Médecine/Réal_Lacombe/Réal_Lacombe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9al_Lacombe</t>
+          <t>Réal_Lacombe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réal Lacombe est un médecin québécois né le 2 juin 1948 à Rouyn-Noranda et mort le 31 mars 2016[1]. 
-Il a obtenu un diplôme de médecine à l'Université de Montréal et une maîtrise, en santé publique, à l'Université de Californie à Berkeley[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réal Lacombe est un médecin québécois né le 2 juin 1948 à Rouyn-Noranda et mort le 31 mars 2016. 
+Il a obtenu un diplôme de médecine à l'Université de Montréal et une maîtrise, en santé publique, à l'Université de Californie à Berkeley.
 Il a été directeur de la santé publique et des affaires médicales à l'Agence de la santé et des services sociaux de l'Abitibi-Témiscamingue. 
 Il a fondé le Réseau québécois de villes et villages en santé, reconnu comme modèle par l'Organisation mondiale de la santé. 
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9al_Lacombe</t>
+          <t>Réal_Lacombe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2007 : Chevalier de l'Ordre national du Québec</t>
         </is>
